--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C89EF-CE79-4AC5-85DB-0212CA223F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D60BB-A0F9-4B04-A60E-1E2950CC49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>ลาออก</t>
+  </si>
+  <si>
+    <t>ข</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -251,24 +257,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +611,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,811 +624,791 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="28">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="29">
+    <mergeCell ref="E11:S11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -1403,6 +1416,27 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D60BB-A0F9-4B04-A60E-1E2950CC49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDDC79B-CEB0-4625-991C-561FF8ECE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>ข</t>
+  </si>
+  <si>
+    <t>ล</t>
   </si>
 </sst>
 </file>
@@ -284,17 +287,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +301,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +616,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,177 +629,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>25</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
@@ -807,23 +818,25 @@
         <v>11</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
@@ -836,23 +849,25 @@
         <v>13</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
@@ -865,23 +880,25 @@
         <v>15</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
@@ -894,23 +911,23 @@
         <v>17</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
@@ -923,23 +940,25 @@
         <v>19</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
@@ -952,23 +971,25 @@
         <v>21</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
@@ -981,23 +1002,25 @@
         <v>23</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
@@ -1010,23 +1033,25 @@
         <v>25</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
@@ -1039,23 +1064,25 @@
         <v>27</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
@@ -1068,23 +1095,25 @@
         <v>29</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
@@ -1097,23 +1126,25 @@
         <v>31</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
@@ -1126,23 +1157,25 @@
         <v>33</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
@@ -1155,23 +1188,25 @@
         <v>35</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
@@ -1184,23 +1219,25 @@
         <v>37</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
@@ -1213,23 +1250,25 @@
         <v>39</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
@@ -1242,23 +1281,25 @@
         <v>41</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
@@ -1271,23 +1312,25 @@
         <v>43</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
@@ -1300,23 +1343,25 @@
         <v>45</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
@@ -1329,23 +1374,25 @@
         <v>47</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A27" s="1">
@@ -1358,23 +1405,25 @@
         <v>49</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A28" s="1">
@@ -1387,23 +1436,25 @@
         <v>51</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDDC79B-CEB0-4625-991C-561FF8ECE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D19F1-CEAA-4C42-A523-BF7A2DEBD55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -293,7 +293,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,105 +629,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -739,7 +739,9 @@
       <c r="F5" s="3">
         <v>12</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -754,9 +756,9 @@
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -766,7 +768,9 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>9</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -781,9 +785,9 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,7 +797,9 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -814,17 +820,19 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -845,17 +853,19 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -876,17 +886,19 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -907,27 +919,27 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
@@ -936,17 +948,19 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -967,17 +981,19 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -998,17 +1014,19 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1029,17 +1047,19 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1060,17 +1080,19 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1091,17 +1113,19 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1122,17 +1146,19 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1153,17 +1179,19 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1184,17 +1212,19 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1215,17 +1245,19 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1246,17 +1278,19 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1277,17 +1311,19 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1308,17 +1344,19 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1339,17 +1377,19 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1370,17 +1410,19 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1401,17 +1443,19 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1432,17 +1476,19 @@
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1459,6 +1505,23 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
@@ -1471,23 +1534,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D19F1-CEAA-4C42-A523-BF7A2DEBD55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD7919-40AC-4D2B-8323-F5182FB155B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -293,6 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,7 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,105 +629,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -742,7 +742,9 @@
       <c r="G5" s="3">
         <v>12</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>12</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -756,9 +758,9 @@
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -771,7 +773,9 @@
       <c r="G6" s="3">
         <v>9</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -785,9 +789,9 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -800,7 +804,9 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -820,10 +826,10 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
@@ -833,7 +839,9 @@
       <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -853,10 +861,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
@@ -866,7 +874,9 @@
       <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -886,10 +896,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
@@ -899,7 +909,9 @@
       <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -919,27 +931,27 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
@@ -948,10 +960,10 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
@@ -961,7 +973,9 @@
       <c r="G12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -981,10 +995,10 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
@@ -994,7 +1008,9 @@
       <c r="G13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1014,10 +1030,10 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1027,7 +1043,9 @@
       <c r="G14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1047,10 +1065,10 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1060,7 +1078,9 @@
       <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1080,10 +1100,10 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1093,7 +1113,9 @@
       <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1113,10 +1135,10 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1126,7 +1148,9 @@
       <c r="G17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1146,10 +1170,10 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1159,7 +1183,9 @@
       <c r="G18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1179,10 +1205,10 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1192,7 +1218,9 @@
       <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1212,10 +1240,10 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1225,7 +1253,9 @@
       <c r="G20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1245,10 +1275,10 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1288,9 @@
       <c r="G21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1278,10 +1310,10 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1291,7 +1323,9 @@
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1311,10 +1345,10 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1358,9 @@
       <c r="G23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1344,10 +1380,10 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1357,7 +1393,9 @@
       <c r="G24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1377,10 +1415,10 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1390,7 +1428,9 @@
       <c r="G25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1410,10 +1450,10 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1423,7 +1463,9 @@
       <c r="G26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1443,10 +1485,10 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1456,7 +1498,9 @@
       <c r="G27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1476,10 +1520,10 @@
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1489,7 +1533,9 @@
       <c r="G28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1505,23 +1551,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
@@ -1534,6 +1563,23 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD7919-40AC-4D2B-8323-F5182FB155B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD3807-20DE-42F0-A762-6278ADC57434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -293,7 +293,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,105 +629,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -745,7 +745,9 @@
       <c r="H5" s="3">
         <v>12</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>12</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -758,9 +760,9 @@
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -776,7 +778,9 @@
       <c r="H6" s="3">
         <v>16</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>23</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -789,9 +793,9 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -807,7 +811,9 @@
       <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -826,10 +832,10 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
@@ -842,7 +848,9 @@
       <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -861,10 +869,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
@@ -877,7 +885,9 @@
       <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -896,10 +906,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
@@ -912,7 +922,9 @@
       <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -931,27 +943,27 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
@@ -960,10 +972,10 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
@@ -976,7 +988,9 @@
       <c r="H12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -995,10 +1009,10 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1011,7 +1025,9 @@
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1030,10 +1046,10 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1046,7 +1062,9 @@
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1065,10 +1083,10 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1081,7 +1099,9 @@
       <c r="H15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1100,10 +1120,10 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1116,7 +1136,9 @@
       <c r="H16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1135,10 +1157,10 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1151,7 +1173,9 @@
       <c r="H17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1170,10 +1194,10 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1186,7 +1210,9 @@
       <c r="H18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1205,10 +1231,10 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1221,7 +1247,9 @@
       <c r="H19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1240,10 +1268,10 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1256,7 +1284,9 @@
       <c r="H20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1275,10 +1305,10 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
@@ -1291,7 +1321,9 @@
       <c r="H21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1310,10 +1342,10 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1326,7 +1358,9 @@
       <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1345,10 +1379,10 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1361,7 +1395,9 @@
       <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1380,10 +1416,10 @@
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1396,7 +1432,9 @@
       <c r="H24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1415,10 +1453,10 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1431,7 +1469,9 @@
       <c r="H25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1450,10 +1490,10 @@
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1466,7 +1506,9 @@
       <c r="H26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1485,10 +1527,10 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1501,7 +1543,9 @@
       <c r="H27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1520,10 +1564,10 @@
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1536,7 +1580,9 @@
       <c r="H28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1551,6 +1597,23 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
@@ -1563,23 +1626,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -5,18 +5,27 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD3807-20DE-42F0-A762-6278ADC57434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B0DFBA-4269-476F-9BB8-6E1417B9BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="3285" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -33,9 +42,6 @@
     <t>ใบรายชื่อนักศึกษา(ภาคเรียนที่ 2 ปีการศึกษา 2568)</t>
   </si>
   <si>
-    <t xml:space="preserve"> รหัสวิชา ENGCE117     วิชา การเขียนโปรแกรมสำหรับวิศวกรคอมพิวเตอร์ หน่วยกิต 3 กลุ่มวิชา ENGCE117_SEC_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">     อาจารย์ผู้สอน อ.กัมปนาท  สุทธิจิระพันธ์</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
   </si>
   <si>
     <t>ล</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รหัสวิชา ENGCE117     วิชา การเขียนโปรแกรมสำหรับวิศวกรคอมพิวเตอร์ หน่วยกิต 3 กลุ่มวิชา ENGCE117_SEC_1_2</t>
   </si>
 </sst>
 </file>
@@ -308,10 +317,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -615,11 +624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -628,7 +637,7 @@
     <col min="5" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -651,7 +660,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -674,9 +683,9 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -697,9 +706,9 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -720,18 +729,18 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
@@ -759,12 +768,12 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
         <v>25</v>
@@ -792,12 +801,12 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -825,31 +834,31 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -862,31 +871,31 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -899,31 +908,31 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -936,19 +945,19 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -965,31 +974,31 @@
       <c r="R11" s="5"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1002,31 +1011,31 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1039,31 +1048,31 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1076,31 +1085,31 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1113,31 +1122,31 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1150,31 +1159,31 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1187,31 +1196,31 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1224,31 +1233,31 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1261,31 +1270,31 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1298,31 +1307,31 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1335,31 +1344,31 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1372,31 +1381,31 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1409,31 +1418,31 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1446,31 +1455,31 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1483,31 +1492,31 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1520,31 +1529,31 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1557,31 +1566,31 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1596,24 +1605,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="29">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+  <mergeCells count="8">
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
@@ -1622,10 +1614,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B0DFBA-4269-476F-9BB8-6E1417B9BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3402BFD4-393A-47E9-A805-04A368D5C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3285" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -302,6 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,10 +318,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -624,11 +624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -637,106 +637,106 @@
     <col min="5" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.8">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -757,7 +757,9 @@
       <c r="I5" s="3">
         <v>12</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -768,10 +770,10 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
@@ -790,7 +792,9 @@
       <c r="I6" s="3">
         <v>23</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -801,10 +805,10 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -823,7 +827,9 @@
       <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -834,17 +840,17 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
@@ -860,7 +866,9 @@
       <c r="I8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -871,17 +879,17 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
@@ -897,7 +905,9 @@
       <c r="I9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -908,17 +918,17 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
@@ -934,7 +944,9 @@
       <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -945,46 +957,46 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1000,7 +1012,9 @@
       <c r="I12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1011,17 +1025,17 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1037,7 +1051,9 @@
       <c r="I13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1048,17 +1064,17 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1074,7 +1090,9 @@
       <c r="I14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1085,54 +1103,46 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1148,7 +1158,9 @@
       <c r="I16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1159,17 +1171,17 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1185,7 +1197,9 @@
       <c r="I17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1196,17 +1210,17 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1222,7 +1236,9 @@
       <c r="I18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1233,17 +1249,17 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1259,7 +1275,9 @@
       <c r="I19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1270,17 +1288,17 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1296,7 +1314,9 @@
       <c r="I20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1307,17 +1327,17 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1333,7 +1353,9 @@
       <c r="I21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1344,17 +1366,17 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1370,7 +1392,9 @@
       <c r="I22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1381,17 +1405,17 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1407,7 +1431,9 @@
       <c r="I23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1418,17 +1444,17 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1470,9 @@
       <c r="I24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1455,17 +1483,17 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1509,9 @@
       <c r="I25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1492,17 +1522,17 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1518,7 +1548,9 @@
       <c r="I26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1529,17 +1561,17 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A27" s="1">
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>51</v>
       </c>
@@ -1555,7 +1587,9 @@
       <c r="I27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1566,17 +1600,17 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.8">
       <c r="A28" s="1">
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1626,9 @@
       <c r="I28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1605,7 +1641,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="E15:S15"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3402BFD4-393A-47E9-A805-04A368D5C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD7C51-F52E-4152-856B-A6A99A9F1651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +760,9 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -795,7 +797,9 @@
       <c r="J6" s="3">
         <v>20</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>27</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -830,7 +834,9 @@
       <c r="J7" s="3">
         <v>6</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>7</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -869,7 +875,9 @@
       <c r="J8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -908,7 +916,9 @@
       <c r="J9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -947,7 +957,9 @@
       <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1015,7 +1027,9 @@
       <c r="J12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1054,7 +1068,9 @@
       <c r="J13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1093,7 +1109,9 @@
       <c r="J14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1161,7 +1179,9 @@
       <c r="J16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1200,7 +1220,9 @@
       <c r="J17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1239,7 +1261,9 @@
       <c r="J18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1278,7 +1302,9 @@
       <c r="J19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1317,7 +1343,9 @@
       <c r="J20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1356,7 +1384,9 @@
       <c r="J21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1395,7 +1425,9 @@
       <c r="J22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1434,7 +1466,9 @@
       <c r="J23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1473,7 +1507,9 @@
       <c r="J24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1512,7 +1548,9 @@
       <c r="J25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1551,7 +1589,9 @@
       <c r="J26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1590,7 +1630,9 @@
       <c r="J27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1629,7 +1671,9 @@
       <c r="J28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD7C51-F52E-4152-856B-A6A99A9F1651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B2477-FC43-4DC6-96D9-3DEB7C5388B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +763,9 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -800,7 +802,9 @@
       <c r="K6" s="3">
         <v>27</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -837,7 +841,9 @@
       <c r="K7" s="3">
         <v>7</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>8</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -878,7 +884,9 @@
       <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -919,7 +927,9 @@
       <c r="K9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -960,7 +970,9 @@
       <c r="K10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1030,7 +1042,9 @@
       <c r="K12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1071,7 +1085,9 @@
       <c r="K13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1112,7 +1128,9 @@
       <c r="K14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1182,7 +1200,9 @@
       <c r="K16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1223,7 +1243,9 @@
       <c r="K17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1264,7 +1286,9 @@
       <c r="K18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1305,7 +1329,9 @@
       <c r="K19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1346,7 +1372,9 @@
       <c r="K20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1387,7 +1415,9 @@
       <c r="K21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1428,7 +1458,9 @@
       <c r="K22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1469,7 +1501,9 @@
       <c r="K23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1510,7 +1544,9 @@
       <c r="K24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1551,7 +1587,9 @@
       <c r="K25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1592,7 +1630,9 @@
       <c r="K26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1633,7 +1673,9 @@
       <c r="K27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1674,7 +1716,9 @@
       <c r="K28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B2477-FC43-4DC6-96D9-3DEB7C5388B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF51AA5-6235-400A-960A-9609CF35497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -625,7 +625,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,7 +766,9 @@
       <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -805,7 +807,9 @@
       <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>17</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -844,7 +848,9 @@
       <c r="L7" s="3">
         <v>8</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>9</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -887,7 +893,9 @@
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -930,7 +938,9 @@
       <c r="L9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -973,7 +983,9 @@
       <c r="L10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1045,7 +1057,9 @@
       <c r="L12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1088,7 +1102,9 @@
       <c r="L13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1131,7 +1147,9 @@
       <c r="L14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1203,7 +1221,9 @@
       <c r="L16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1246,7 +1266,9 @@
       <c r="L17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1289,7 +1311,9 @@
       <c r="L18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1332,7 +1356,9 @@
       <c r="L19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1375,7 +1401,9 @@
       <c r="L20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1418,7 +1446,9 @@
       <c r="L21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1461,7 +1491,9 @@
       <c r="L22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1504,7 +1536,9 @@
       <c r="L23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1547,7 +1581,9 @@
       <c r="L24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1590,7 +1626,9 @@
       <c r="L25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1633,7 +1671,9 @@
       <c r="L26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -1676,7 +1716,9 @@
       <c r="L27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1719,7 +1761,9 @@
       <c r="L28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/CHECK_LIST_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF51AA5-6235-400A-960A-9609CF35497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1916B0F4-45FE-48FC-9016-F23EEEAA5258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -625,7 +625,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,7 +769,9 @@
       <c r="M5" s="3">
         <v>2</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -810,7 +812,9 @@
       <c r="M6" s="3">
         <v>17</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>24</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -851,7 +855,9 @@
       <c r="M7" s="3">
         <v>9</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -896,7 +902,9 @@
       <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -941,7 +949,9 @@
       <c r="M9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -986,7 +996,9 @@
       <c r="M10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1060,7 +1072,9 @@
       <c r="M12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1105,7 +1119,9 @@
       <c r="M13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1150,7 +1166,9 @@
       <c r="M14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1224,7 +1242,9 @@
       <c r="M16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1269,7 +1289,9 @@
       <c r="M17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1314,7 +1336,9 @@
       <c r="M18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1359,7 +1383,9 @@
       <c r="M19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1404,7 +1430,9 @@
       <c r="M20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -1449,7 +1477,9 @@
       <c r="M21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1494,7 +1524,9 @@
       <c r="M22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1539,7 +1571,9 @@
       <c r="M23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1584,7 +1618,9 @@
       <c r="M24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1629,7 +1665,9 @@
       <c r="M25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1674,7 +1712,9 @@
       <c r="M26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1719,7 +1759,9 @@
       <c r="M27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1764,7 +1806,9 @@
       <c r="M28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
